--- a/db/Test dataset/BF.xlsx
+++ b/db/Test dataset/BF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="159">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -76,13 +76,7 @@
     <t xml:space="preserve">score</t>
   </si>
   <si>
-    <t xml:space="preserve">10000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-1</t>
+    <t xml:space="preserve">1000000</t>
   </si>
   <si>
     <t xml:space="preserve">Forecast</t>
@@ -109,631 +103,394 @@
     <t xml:space="preserve">92</t>
   </si>
   <si>
-    <t xml:space="preserve">1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plan Refresh</t>
   </si>
   <si>
     <t xml:space="preserve">1.001.002</t>
   </si>
   <si>
-    <t xml:space="preserve">A-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Harmonize</t>
   </si>
   <si>
     <t xml:space="preserve">1.001.003</t>
   </si>
   <si>
-    <t xml:space="preserve">A-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Release</t>
   </si>
   <si>
     <t xml:space="preserve">1.001.004</t>
   </si>
   <si>
-    <t xml:space="preserve">A-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Demand</t>
   </si>
   <si>
     <t xml:space="preserve">1.001.005</t>
   </si>
   <si>
-    <t xml:space="preserve">A-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Production Information</t>
   </si>
   <si>
     <t xml:space="preserve">1.001.006</t>
   </si>
   <si>
-    <t xml:space="preserve">A-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Purchasing Information</t>
   </si>
   <si>
     <t xml:space="preserve">1.001.007</t>
   </si>
   <si>
-    <t xml:space="preserve">1215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Production Batch Creation</t>
   </si>
   <si>
     <t xml:space="preserve">1.002.001</t>
   </si>
   <si>
-    <t xml:space="preserve">B-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Automatic Lot numbering Generation</t>
   </si>
   <si>
     <t xml:space="preserve">1.002.002</t>
   </si>
   <si>
-    <t xml:space="preserve">B-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Production Batch Execution</t>
   </si>
   <si>
     <t xml:space="preserve">1.002.003</t>
   </si>
   <si>
-    <t xml:space="preserve">B-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rework and Reprocess a Batch</t>
   </si>
   <si>
     <t xml:space="preserve">1.002.004</t>
   </si>
   <si>
-    <t xml:space="preserve">B-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Costing</t>
   </si>
   <si>
     <t xml:space="preserve">1.002.005</t>
   </si>
   <si>
-    <t xml:space="preserve">B-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Recipe</t>
   </si>
   <si>
     <t xml:space="preserve">1.002.006</t>
   </si>
   <si>
-    <t xml:space="preserve">B-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Resource</t>
   </si>
   <si>
     <t xml:space="preserve">1.002.007</t>
   </si>
   <si>
-    <t xml:space="preserve">B-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create and Execute TPM Batches</t>
   </si>
   <si>
     <t xml:space="preserve">1.002.008</t>
   </si>
   <si>
-    <t xml:space="preserve">1216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Instrument Definition and Calibration</t>
   </si>
   <si>
     <t xml:space="preserve">1.003.001</t>
   </si>
   <si>
-    <t xml:space="preserve">C-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corrective Maintenance</t>
   </si>
   <si>
     <t xml:space="preserve">1.003.002</t>
   </si>
   <si>
-    <t xml:space="preserve">C-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Work Order Execution</t>
   </si>
   <si>
     <t xml:space="preserve">1.003.003</t>
   </si>
   <si>
-    <t xml:space="preserve">C-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Purchasing and Inventory Valuation</t>
   </si>
   <si>
     <t xml:space="preserve">1.003.004</t>
   </si>
   <si>
-    <t xml:space="preserve">1217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Purchase Order Requisitions</t>
   </si>
   <si>
     <t xml:space="preserve">1.004.001</t>
   </si>
   <si>
-    <t xml:space="preserve">D-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Purchase Orders</t>
   </si>
   <si>
     <t xml:space="preserve">1.004.002</t>
   </si>
   <si>
-    <t xml:space="preserve">D-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Purchase Order Receipts</t>
   </si>
   <si>
     <t xml:space="preserve">1.004.003</t>
   </si>
   <si>
-    <t xml:space="preserve">D-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Purchase Order Period Close and Reporting</t>
   </si>
   <si>
     <t xml:space="preserve">1.004.004</t>
   </si>
   <si>
-    <t xml:space="preserve">D-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">iProcurement</t>
   </si>
   <si>
     <t xml:space="preserve">1.004.005</t>
   </si>
   <si>
-    <t xml:space="preserve">D-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Supplier Master Data</t>
   </si>
   <si>
     <t xml:space="preserve">1.004.006</t>
   </si>
   <si>
-    <t xml:space="preserve">1218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Internal Requisition &amp; Internal Sales Order</t>
   </si>
   <si>
     <t xml:space="preserve">1.005.001</t>
   </si>
   <si>
-    <t xml:space="preserve">E-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Item Master Data</t>
   </si>
   <si>
     <t xml:space="preserve">1.005.002</t>
   </si>
   <si>
-    <t xml:space="preserve">E-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Inventory Set Up</t>
   </si>
   <si>
     <t xml:space="preserve">1.005.003</t>
   </si>
   <si>
-    <t xml:space="preserve">E-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inventory Transactions</t>
   </si>
   <si>
     <t xml:space="preserve">1.005.004</t>
   </si>
   <si>
-    <t xml:space="preserve">E-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Physical Inventory Count</t>
   </si>
   <si>
     <t xml:space="preserve">1.005.005</t>
   </si>
   <si>
-    <t xml:space="preserve">E-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cycle Count</t>
   </si>
   <si>
     <t xml:space="preserve">1.005.006</t>
   </si>
   <si>
-    <t xml:space="preserve">E-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perform Period Open Close</t>
   </si>
   <si>
     <t xml:space="preserve">1.005.007</t>
   </si>
   <si>
-    <t xml:space="preserve">E-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quality Transactions</t>
   </si>
   <si>
     <t xml:space="preserve">1.005.008</t>
   </si>
   <si>
-    <t xml:space="preserve">1219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter Orders</t>
   </si>
   <si>
     <t xml:space="preserve">1.006.001</t>
   </si>
   <si>
-    <t xml:space="preserve">F-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Pricing and Discounts</t>
   </si>
   <si>
     <t xml:space="preserve">1.006.002</t>
   </si>
   <si>
-    <t xml:space="preserve">F-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perform Credit Check and Release</t>
   </si>
   <si>
     <t xml:space="preserve">1.006.003</t>
   </si>
   <si>
-    <t xml:space="preserve">F-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Order Changes</t>
   </si>
   <si>
     <t xml:space="preserve">1.006.004</t>
   </si>
   <si>
-    <t xml:space="preserve">F-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perfom Availability Check and Reservation</t>
   </si>
   <si>
     <t xml:space="preserve">1.006.005</t>
   </si>
   <si>
-    <t xml:space="preserve">F-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pick Release</t>
   </si>
   <si>
     <t xml:space="preserve">1.006.006</t>
   </si>
   <si>
-    <t xml:space="preserve">F-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ship Confirm</t>
   </si>
   <si>
     <t xml:space="preserve">1.006.007</t>
   </si>
   <si>
-    <t xml:space="preserve">F-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create and Process Return Material Authorisation (RMAs)</t>
   </si>
   <si>
     <t xml:space="preserve">1.006.008</t>
   </si>
   <si>
-    <t xml:space="preserve">F-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create and Process Drop Shipments</t>
   </si>
   <si>
     <t xml:space="preserve">1.006.009</t>
   </si>
   <si>
-    <t xml:space="preserve">F-10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Internal Sales Orders</t>
   </si>
   <si>
     <t xml:space="preserve">1.006.010</t>
   </si>
   <si>
-    <t xml:space="preserve">1220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Accounts Receivable Masters</t>
   </si>
   <si>
     <t xml:space="preserve">1.007.001</t>
   </si>
   <si>
-    <t xml:space="preserve">G-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Accounts Receivable Transactions</t>
   </si>
   <si>
     <t xml:space="preserve">1.007.002</t>
   </si>
   <si>
-    <t xml:space="preserve">G-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Accounts Receivable Receipts</t>
   </si>
   <si>
     <t xml:space="preserve">1.007.003</t>
   </si>
   <si>
-    <t xml:space="preserve">G-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perform Accounts Receivable Month End Close and Reporting</t>
   </si>
   <si>
     <t xml:space="preserve">1.007.004</t>
   </si>
   <si>
-    <t xml:space="preserve">G-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">iReceivables</t>
   </si>
   <si>
     <t xml:space="preserve">1.007.005</t>
   </si>
   <si>
-    <t xml:space="preserve">1221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Accounts Payable Intercompany Transactions</t>
   </si>
   <si>
     <t xml:space="preserve">1.008.001</t>
   </si>
   <si>
-    <t xml:space="preserve">H-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Accounts Payable Intercompany with Requisition Transactions</t>
   </si>
   <si>
     <t xml:space="preserve">1.008.002</t>
   </si>
   <si>
-    <t xml:space="preserve">H-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Accounts Payable Masters</t>
   </si>
   <si>
     <t xml:space="preserve">1.008.003</t>
   </si>
   <si>
-    <t xml:space="preserve">H-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Accounts Payable Transactions</t>
   </si>
   <si>
     <t xml:space="preserve">1.008.004</t>
   </si>
   <si>
-    <t xml:space="preserve">H-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Accounts Payable Payments</t>
   </si>
   <si>
     <t xml:space="preserve">1.008.005</t>
   </si>
   <si>
-    <t xml:space="preserve">H-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accounts Payable and Accounts Receivable Netting</t>
   </si>
   <si>
     <t xml:space="preserve">1.008.006</t>
   </si>
   <si>
-    <t xml:space="preserve">H-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perform Accounts Payable Month End Close and Reporting</t>
   </si>
   <si>
     <t xml:space="preserve">1.008.007</t>
   </si>
   <si>
-    <t xml:space="preserve">1222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create Fixed Assets</t>
   </si>
   <si>
     <t xml:space="preserve">1.009.001</t>
   </si>
   <si>
-    <t xml:space="preserve">I-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain Fixed Assets</t>
   </si>
   <si>
     <t xml:space="preserve">1.009.002</t>
   </si>
   <si>
-    <t xml:space="preserve">I-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process Fixed Assets Depreciation and Perform Period Close</t>
   </si>
   <si>
     <t xml:space="preserve">1.009.003</t>
   </si>
   <si>
-    <t xml:space="preserve">1223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maintain General Ledger Masters</t>
   </si>
   <si>
     <t xml:space="preserve">1.010.001</t>
   </si>
   <si>
-    <t xml:space="preserve">J-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process General Ledger Journal Entries</t>
   </si>
   <si>
     <t xml:space="preserve">1.010.002</t>
   </si>
   <si>
-    <t xml:space="preserve">J-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Process General Ledger Month End Close</t>
   </si>
   <si>
     <t xml:space="preserve">1.010.003</t>
   </si>
   <si>
-    <t xml:space="preserve">1224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perform Cash Management Bank Reconciliation</t>
   </si>
   <si>
     <t xml:space="preserve">1.011.001</t>
   </si>
   <si>
-    <t xml:space="preserve">K-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cash Management Reports and Forecast</t>
   </si>
   <si>
     <t xml:space="preserve">1.011.002</t>
   </si>
   <si>
-    <t xml:space="preserve">1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">VAT Linked to Order to Cash</t>
   </si>
   <si>
     <t xml:space="preserve">1.012.001</t>
   </si>
   <si>
-    <t xml:space="preserve">L-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">FER Tax Register Report (Discoverer) </t>
   </si>
   <si>
     <t xml:space="preserve">1.012.002</t>
   </si>
   <si>
-    <t xml:space="preserve">1226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Applications Login</t>
   </si>
   <si>
     <t xml:space="preserve">1.013.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O-2</t>
   </si>
   <si>
     <t xml:space="preserve">Reporting</t>
@@ -839,15 +596,15 @@
   </sheetPr>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,3149 +667,3149 @@
       <c r="B2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="0" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="J2" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2000001</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>52</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2000001</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>55</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2000001</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2000001</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2000001</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="J13" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2000001</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2000001</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2000001</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2000002</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>77</v>
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2000002</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2000002</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2000002</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>87</v>
+        <v>18</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2000003</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>90</v>
+        <v>18</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2000003</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>93</v>
+        <v>18</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2000003</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>96</v>
+        <v>18</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2000003</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>99</v>
+        <v>18</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2000003</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>102</v>
+        <v>18</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2000003</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>106</v>
+        <v>18</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2000004</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>109</v>
+        <v>18</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2000004</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2000004</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>115</v>
+        <v>18</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2000004</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>118</v>
+        <v>18</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2000004</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>121</v>
+        <v>18</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2000004</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>124</v>
+        <v>18</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2000004</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>127</v>
+        <v>18</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2000004</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>131</v>
+        <v>18</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2000005</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>134</v>
+        <v>18</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2000005</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>137</v>
+        <v>18</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2000005</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>140</v>
+        <v>18</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2000005</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>143</v>
+        <v>18</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2000005</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>146</v>
+        <v>18</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2000005</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>149</v>
+        <v>18</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2000005</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2000005</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>155</v>
+        <v>18</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2000005</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>158</v>
+        <v>18</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2000005</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>162</v>
+        <v>18</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2000006</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>165</v>
+        <v>18</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2000006</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>168</v>
+        <v>18</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2000006</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>171</v>
+        <v>18</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2000006</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>174</v>
+        <v>18</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2000006</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>178</v>
+        <v>18</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2000007</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>181</v>
+        <v>18</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2000007</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>184</v>
+        <v>18</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2000007</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>187</v>
+        <v>18</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2000007</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>190</v>
+        <v>18</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>2000007</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>193</v>
+        <v>18</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2000007</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>196</v>
+        <v>18</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2000007</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>200</v>
+        <v>18</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2000008</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>203</v>
+        <v>18</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2000008</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>206</v>
+        <v>18</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2000008</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>210</v>
+        <v>18</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2000009</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>213</v>
+        <v>18</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2000009</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>216</v>
+        <v>18</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2000009</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>220</v>
+        <v>18</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2000010</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>223</v>
+        <v>18</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2000010</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>227</v>
+        <v>18</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2000011</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>230</v>
+        <v>18</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2000011</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q66" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R66" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>234</v>
+        <v>18</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2000012</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>237</v>
+        <v>18</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2000012</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
